--- a/data/access/decks.xlsx
+++ b/data/access/decks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E720"/>
+  <dimension ref="A1:D720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,6 @@
           <t>IdTournament</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>IdTop</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -477,9 +472,6 @@
       <c r="D2" t="n">
         <v>179</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -498,9 +490,6 @@
       <c r="D3" t="n">
         <v>179</v>
       </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -519,9 +508,6 @@
       <c r="D4" t="n">
         <v>179</v>
       </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -540,9 +526,6 @@
       <c r="D5" t="n">
         <v>179</v>
       </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -561,9 +544,6 @@
       <c r="D6" t="n">
         <v>179</v>
       </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -582,9 +562,6 @@
       <c r="D7" t="n">
         <v>179</v>
       </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -603,9 +580,6 @@
       <c r="D8" t="n">
         <v>179</v>
       </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -624,9 +598,6 @@
       <c r="D9" t="n">
         <v>179</v>
       </c>
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -645,9 +616,6 @@
       <c r="D10" t="n">
         <v>179</v>
       </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -666,9 +634,6 @@
       <c r="D11" t="n">
         <v>179</v>
       </c>
-      <c r="E11" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -687,9 +652,6 @@
       <c r="D12" t="n">
         <v>179</v>
       </c>
-      <c r="E12" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -708,9 +670,6 @@
       <c r="D13" t="n">
         <v>179</v>
       </c>
-      <c r="E13" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -729,9 +688,6 @@
       <c r="D14" t="n">
         <v>179</v>
       </c>
-      <c r="E14" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -750,9 +706,6 @@
       <c r="D15" t="n">
         <v>179</v>
       </c>
-      <c r="E15" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -771,9 +724,6 @@
       <c r="D16" t="n">
         <v>179</v>
       </c>
-      <c r="E16" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -792,9 +742,6 @@
       <c r="D17" t="n">
         <v>179</v>
       </c>
-      <c r="E17" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -813,9 +760,6 @@
       <c r="D18" t="n">
         <v>180</v>
       </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -834,9 +778,6 @@
       <c r="D19" t="n">
         <v>180</v>
       </c>
-      <c r="E19" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -855,9 +796,6 @@
       <c r="D20" t="n">
         <v>180</v>
       </c>
-      <c r="E20" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -876,9 +814,6 @@
       <c r="D21" t="n">
         <v>180</v>
       </c>
-      <c r="E21" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -897,9 +832,6 @@
       <c r="D22" t="n">
         <v>180</v>
       </c>
-      <c r="E22" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -918,9 +850,6 @@
       <c r="D23" t="n">
         <v>180</v>
       </c>
-      <c r="E23" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -939,9 +868,6 @@
       <c r="D24" t="n">
         <v>180</v>
       </c>
-      <c r="E24" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -960,9 +886,6 @@
       <c r="D25" t="n">
         <v>180</v>
       </c>
-      <c r="E25" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -981,9 +904,6 @@
       <c r="D26" t="n">
         <v>180</v>
       </c>
-      <c r="E26" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1002,9 +922,6 @@
       <c r="D27" t="n">
         <v>180</v>
       </c>
-      <c r="E27" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1023,9 +940,6 @@
       <c r="D28" t="n">
         <v>180</v>
       </c>
-      <c r="E28" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1044,9 +958,6 @@
       <c r="D29" t="n">
         <v>180</v>
       </c>
-      <c r="E29" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1065,9 +976,6 @@
       <c r="D30" t="n">
         <v>180</v>
       </c>
-      <c r="E30" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1086,9 +994,6 @@
       <c r="D31" t="n">
         <v>180</v>
       </c>
-      <c r="E31" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1107,9 +1012,6 @@
       <c r="D32" t="n">
         <v>180</v>
       </c>
-      <c r="E32" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1128,9 +1030,6 @@
       <c r="D33" t="n">
         <v>180</v>
       </c>
-      <c r="E33" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1149,9 +1048,6 @@
       <c r="D34" t="n">
         <v>181</v>
       </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1170,9 +1066,6 @@
       <c r="D35" t="n">
         <v>181</v>
       </c>
-      <c r="E35" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1191,9 +1084,6 @@
       <c r="D36" t="n">
         <v>181</v>
       </c>
-      <c r="E36" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1212,9 +1102,6 @@
       <c r="D37" t="n">
         <v>181</v>
       </c>
-      <c r="E37" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1233,9 +1120,6 @@
       <c r="D38" t="n">
         <v>181</v>
       </c>
-      <c r="E38" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1254,9 +1138,6 @@
       <c r="D39" t="n">
         <v>181</v>
       </c>
-      <c r="E39" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1275,9 +1156,6 @@
       <c r="D40" t="n">
         <v>181</v>
       </c>
-      <c r="E40" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1296,9 +1174,6 @@
       <c r="D41" t="n">
         <v>181</v>
       </c>
-      <c r="E41" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1317,9 +1192,6 @@
       <c r="D42" t="n">
         <v>181</v>
       </c>
-      <c r="E42" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1338,9 +1210,6 @@
       <c r="D43" t="n">
         <v>181</v>
       </c>
-      <c r="E43" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1359,9 +1228,6 @@
       <c r="D44" t="n">
         <v>181</v>
       </c>
-      <c r="E44" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1380,9 +1246,6 @@
       <c r="D45" t="n">
         <v>181</v>
       </c>
-      <c r="E45" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1401,9 +1264,6 @@
       <c r="D46" t="n">
         <v>181</v>
       </c>
-      <c r="E46" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1422,9 +1282,6 @@
       <c r="D47" t="n">
         <v>181</v>
       </c>
-      <c r="E47" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1443,9 +1300,6 @@
       <c r="D48" t="n">
         <v>181</v>
       </c>
-      <c r="E48" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1464,9 +1318,6 @@
       <c r="D49" t="n">
         <v>181</v>
       </c>
-      <c r="E49" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1485,9 +1336,6 @@
       <c r="D50" t="n">
         <v>182</v>
       </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1506,9 +1354,6 @@
       <c r="D51" t="n">
         <v>182</v>
       </c>
-      <c r="E51" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1527,9 +1372,6 @@
       <c r="D52" t="n">
         <v>182</v>
       </c>
-      <c r="E52" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1548,9 +1390,6 @@
       <c r="D53" t="n">
         <v>182</v>
       </c>
-      <c r="E53" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1569,9 +1408,6 @@
       <c r="D54" t="n">
         <v>182</v>
       </c>
-      <c r="E54" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1590,9 +1426,6 @@
       <c r="D55" t="n">
         <v>182</v>
       </c>
-      <c r="E55" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1611,9 +1444,6 @@
       <c r="D56" t="n">
         <v>182</v>
       </c>
-      <c r="E56" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1632,9 +1462,6 @@
       <c r="D57" t="n">
         <v>182</v>
       </c>
-      <c r="E57" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1653,9 +1480,6 @@
       <c r="D58" t="n">
         <v>182</v>
       </c>
-      <c r="E58" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1674,9 +1498,6 @@
       <c r="D59" t="n">
         <v>182</v>
       </c>
-      <c r="E59" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1695,9 +1516,6 @@
       <c r="D60" t="n">
         <v>182</v>
       </c>
-      <c r="E60" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1716,9 +1534,6 @@
       <c r="D61" t="n">
         <v>182</v>
       </c>
-      <c r="E61" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1737,9 +1552,6 @@
       <c r="D62" t="n">
         <v>182</v>
       </c>
-      <c r="E62" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1758,9 +1570,6 @@
       <c r="D63" t="n">
         <v>182</v>
       </c>
-      <c r="E63" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1779,9 +1588,6 @@
       <c r="D64" t="n">
         <v>182</v>
       </c>
-      <c r="E64" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1800,9 +1606,6 @@
       <c r="D65" t="n">
         <v>182</v>
       </c>
-      <c r="E65" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1821,9 +1624,6 @@
       <c r="D66" t="n">
         <v>183</v>
       </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1842,9 +1642,6 @@
       <c r="D67" t="n">
         <v>183</v>
       </c>
-      <c r="E67" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1863,9 +1660,6 @@
       <c r="D68" t="n">
         <v>183</v>
       </c>
-      <c r="E68" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1884,9 +1678,6 @@
       <c r="D69" t="n">
         <v>183</v>
       </c>
-      <c r="E69" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1905,9 +1696,6 @@
       <c r="D70" t="n">
         <v>183</v>
       </c>
-      <c r="E70" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1926,9 +1714,6 @@
       <c r="D71" t="n">
         <v>183</v>
       </c>
-      <c r="E71" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1947,9 +1732,6 @@
       <c r="D72" t="n">
         <v>183</v>
       </c>
-      <c r="E72" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1968,9 +1750,6 @@
       <c r="D73" t="n">
         <v>183</v>
       </c>
-      <c r="E73" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1989,9 +1768,6 @@
       <c r="D74" t="n">
         <v>183</v>
       </c>
-      <c r="E74" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2010,9 +1786,6 @@
       <c r="D75" t="n">
         <v>183</v>
       </c>
-      <c r="E75" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2031,9 +1804,6 @@
       <c r="D76" t="n">
         <v>183</v>
       </c>
-      <c r="E76" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2052,9 +1822,6 @@
       <c r="D77" t="n">
         <v>183</v>
       </c>
-      <c r="E77" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2073,9 +1840,6 @@
       <c r="D78" t="n">
         <v>183</v>
       </c>
-      <c r="E78" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2094,9 +1858,6 @@
       <c r="D79" t="n">
         <v>183</v>
       </c>
-      <c r="E79" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2115,9 +1876,6 @@
       <c r="D80" t="n">
         <v>183</v>
       </c>
-      <c r="E80" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2136,9 +1894,6 @@
       <c r="D81" t="n">
         <v>183</v>
       </c>
-      <c r="E81" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2157,9 +1912,6 @@
       <c r="D82" t="n">
         <v>184</v>
       </c>
-      <c r="E82" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2178,9 +1930,6 @@
       <c r="D83" t="n">
         <v>184</v>
       </c>
-      <c r="E83" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2199,9 +1948,6 @@
       <c r="D84" t="n">
         <v>184</v>
       </c>
-      <c r="E84" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2220,9 +1966,6 @@
       <c r="D85" t="n">
         <v>184</v>
       </c>
-      <c r="E85" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2241,9 +1984,6 @@
       <c r="D86" t="n">
         <v>184</v>
       </c>
-      <c r="E86" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2262,9 +2002,6 @@
       <c r="D87" t="n">
         <v>184</v>
       </c>
-      <c r="E87" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2283,9 +2020,6 @@
       <c r="D88" t="n">
         <v>184</v>
       </c>
-      <c r="E88" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2304,9 +2038,6 @@
       <c r="D89" t="n">
         <v>184</v>
       </c>
-      <c r="E89" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2325,9 +2056,6 @@
       <c r="D90" t="n">
         <v>184</v>
       </c>
-      <c r="E90" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2346,9 +2074,6 @@
       <c r="D91" t="n">
         <v>184</v>
       </c>
-      <c r="E91" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2367,9 +2092,6 @@
       <c r="D92" t="n">
         <v>184</v>
       </c>
-      <c r="E92" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2388,9 +2110,6 @@
       <c r="D93" t="n">
         <v>184</v>
       </c>
-      <c r="E93" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2409,9 +2128,6 @@
       <c r="D94" t="n">
         <v>184</v>
       </c>
-      <c r="E94" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2430,9 +2146,6 @@
       <c r="D95" t="n">
         <v>184</v>
       </c>
-      <c r="E95" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2451,9 +2164,6 @@
       <c r="D96" t="n">
         <v>184</v>
       </c>
-      <c r="E96" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2472,9 +2182,6 @@
       <c r="D97" t="n">
         <v>184</v>
       </c>
-      <c r="E97" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2493,9 +2200,6 @@
       <c r="D98" t="n">
         <v>185</v>
       </c>
-      <c r="E98" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2514,9 +2218,6 @@
       <c r="D99" t="n">
         <v>185</v>
       </c>
-      <c r="E99" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2535,9 +2236,6 @@
       <c r="D100" t="n">
         <v>185</v>
       </c>
-      <c r="E100" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2556,9 +2254,6 @@
       <c r="D101" t="n">
         <v>185</v>
       </c>
-      <c r="E101" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2577,9 +2272,6 @@
       <c r="D102" t="n">
         <v>185</v>
       </c>
-      <c r="E102" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2598,9 +2290,6 @@
       <c r="D103" t="n">
         <v>185</v>
       </c>
-      <c r="E103" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2619,9 +2308,6 @@
       <c r="D104" t="n">
         <v>185</v>
       </c>
-      <c r="E104" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2640,9 +2326,6 @@
       <c r="D105" t="n">
         <v>185</v>
       </c>
-      <c r="E105" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2661,9 +2344,6 @@
       <c r="D106" t="n">
         <v>185</v>
       </c>
-      <c r="E106" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2682,9 +2362,6 @@
       <c r="D107" t="n">
         <v>185</v>
       </c>
-      <c r="E107" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2703,9 +2380,6 @@
       <c r="D108" t="n">
         <v>185</v>
       </c>
-      <c r="E108" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2724,9 +2398,6 @@
       <c r="D109" t="n">
         <v>185</v>
       </c>
-      <c r="E109" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2745,9 +2416,6 @@
       <c r="D110" t="n">
         <v>185</v>
       </c>
-      <c r="E110" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2766,9 +2434,6 @@
       <c r="D111" t="n">
         <v>185</v>
       </c>
-      <c r="E111" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2787,9 +2452,6 @@
       <c r="D112" t="n">
         <v>185</v>
       </c>
-      <c r="E112" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2808,9 +2470,6 @@
       <c r="D113" t="n">
         <v>185</v>
       </c>
-      <c r="E113" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2829,9 +2488,6 @@
       <c r="D114" t="n">
         <v>186</v>
       </c>
-      <c r="E114" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2850,9 +2506,6 @@
       <c r="D115" t="n">
         <v>186</v>
       </c>
-      <c r="E115" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2871,9 +2524,6 @@
       <c r="D116" t="n">
         <v>186</v>
       </c>
-      <c r="E116" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2892,9 +2542,6 @@
       <c r="D117" t="n">
         <v>186</v>
       </c>
-      <c r="E117" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2913,9 +2560,6 @@
       <c r="D118" t="n">
         <v>186</v>
       </c>
-      <c r="E118" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2934,9 +2578,6 @@
       <c r="D119" t="n">
         <v>186</v>
       </c>
-      <c r="E119" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2955,9 +2596,6 @@
       <c r="D120" t="n">
         <v>186</v>
       </c>
-      <c r="E120" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2976,9 +2614,6 @@
       <c r="D121" t="n">
         <v>186</v>
       </c>
-      <c r="E121" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2997,9 +2632,6 @@
       <c r="D122" t="n">
         <v>186</v>
       </c>
-      <c r="E122" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3018,9 +2650,6 @@
       <c r="D123" t="n">
         <v>186</v>
       </c>
-      <c r="E123" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3039,9 +2668,6 @@
       <c r="D124" t="n">
         <v>186</v>
       </c>
-      <c r="E124" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3060,9 +2686,6 @@
       <c r="D125" t="n">
         <v>186</v>
       </c>
-      <c r="E125" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3081,9 +2704,6 @@
       <c r="D126" t="n">
         <v>186</v>
       </c>
-      <c r="E126" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3102,9 +2722,6 @@
       <c r="D127" t="n">
         <v>186</v>
       </c>
-      <c r="E127" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3123,9 +2740,6 @@
       <c r="D128" t="n">
         <v>186</v>
       </c>
-      <c r="E128" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3144,9 +2758,6 @@
       <c r="D129" t="n">
         <v>186</v>
       </c>
-      <c r="E129" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3165,9 +2776,6 @@
       <c r="D130" t="n">
         <v>187</v>
       </c>
-      <c r="E130" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3186,9 +2794,6 @@
       <c r="D131" t="n">
         <v>187</v>
       </c>
-      <c r="E131" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3207,9 +2812,6 @@
       <c r="D132" t="n">
         <v>187</v>
       </c>
-      <c r="E132" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3228,9 +2830,6 @@
       <c r="D133" t="n">
         <v>187</v>
       </c>
-      <c r="E133" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3249,9 +2848,6 @@
       <c r="D134" t="n">
         <v>187</v>
       </c>
-      <c r="E134" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3270,9 +2866,6 @@
       <c r="D135" t="n">
         <v>187</v>
       </c>
-      <c r="E135" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3291,9 +2884,6 @@
       <c r="D136" t="n">
         <v>187</v>
       </c>
-      <c r="E136" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3312,9 +2902,6 @@
       <c r="D137" t="n">
         <v>187</v>
       </c>
-      <c r="E137" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3333,9 +2920,6 @@
       <c r="D138" t="n">
         <v>187</v>
       </c>
-      <c r="E138" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3354,9 +2938,6 @@
       <c r="D139" t="n">
         <v>187</v>
       </c>
-      <c r="E139" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3375,9 +2956,6 @@
       <c r="D140" t="n">
         <v>187</v>
       </c>
-      <c r="E140" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3396,9 +2974,6 @@
       <c r="D141" t="n">
         <v>187</v>
       </c>
-      <c r="E141" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3417,9 +2992,6 @@
       <c r="D142" t="n">
         <v>187</v>
       </c>
-      <c r="E142" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3438,9 +3010,6 @@
       <c r="D143" t="n">
         <v>187</v>
       </c>
-      <c r="E143" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3459,9 +3028,6 @@
       <c r="D144" t="n">
         <v>187</v>
       </c>
-      <c r="E144" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3480,9 +3046,6 @@
       <c r="D145" t="n">
         <v>187</v>
       </c>
-      <c r="E145" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3501,9 +3064,6 @@
       <c r="D146" t="n">
         <v>188</v>
       </c>
-      <c r="E146" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3522,9 +3082,6 @@
       <c r="D147" t="n">
         <v>188</v>
       </c>
-      <c r="E147" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3543,9 +3100,6 @@
       <c r="D148" t="n">
         <v>188</v>
       </c>
-      <c r="E148" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3564,9 +3118,6 @@
       <c r="D149" t="n">
         <v>188</v>
       </c>
-      <c r="E149" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3585,9 +3136,6 @@
       <c r="D150" t="n">
         <v>188</v>
       </c>
-      <c r="E150" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3606,9 +3154,6 @@
       <c r="D151" t="n">
         <v>188</v>
       </c>
-      <c r="E151" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3627,9 +3172,6 @@
       <c r="D152" t="n">
         <v>188</v>
       </c>
-      <c r="E152" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3648,9 +3190,6 @@
       <c r="D153" t="n">
         <v>188</v>
       </c>
-      <c r="E153" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3669,9 +3208,6 @@
       <c r="D154" t="n">
         <v>188</v>
       </c>
-      <c r="E154" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3690,9 +3226,6 @@
       <c r="D155" t="n">
         <v>188</v>
       </c>
-      <c r="E155" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3711,9 +3244,6 @@
       <c r="D156" t="n">
         <v>188</v>
       </c>
-      <c r="E156" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3732,9 +3262,6 @@
       <c r="D157" t="n">
         <v>188</v>
       </c>
-      <c r="E157" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3753,9 +3280,6 @@
       <c r="D158" t="n">
         <v>188</v>
       </c>
-      <c r="E158" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3774,9 +3298,6 @@
       <c r="D159" t="n">
         <v>188</v>
       </c>
-      <c r="E159" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3795,9 +3316,6 @@
       <c r="D160" t="n">
         <v>188</v>
       </c>
-      <c r="E160" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3816,9 +3334,6 @@
       <c r="D161" t="n">
         <v>188</v>
       </c>
-      <c r="E161" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3837,9 +3352,6 @@
       <c r="D162" t="n">
         <v>189</v>
       </c>
-      <c r="E162" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3858,9 +3370,6 @@
       <c r="D163" t="n">
         <v>189</v>
       </c>
-      <c r="E163" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3879,9 +3388,6 @@
       <c r="D164" t="n">
         <v>189</v>
       </c>
-      <c r="E164" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3900,9 +3406,6 @@
       <c r="D165" t="n">
         <v>189</v>
       </c>
-      <c r="E165" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3921,9 +3424,6 @@
       <c r="D166" t="n">
         <v>189</v>
       </c>
-      <c r="E166" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3942,9 +3442,6 @@
       <c r="D167" t="n">
         <v>189</v>
       </c>
-      <c r="E167" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3963,9 +3460,6 @@
       <c r="D168" t="n">
         <v>189</v>
       </c>
-      <c r="E168" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3984,9 +3478,6 @@
       <c r="D169" t="n">
         <v>189</v>
       </c>
-      <c r="E169" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4005,9 +3496,6 @@
       <c r="D170" t="n">
         <v>189</v>
       </c>
-      <c r="E170" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4026,9 +3514,6 @@
       <c r="D171" t="n">
         <v>189</v>
       </c>
-      <c r="E171" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4047,9 +3532,6 @@
       <c r="D172" t="n">
         <v>189</v>
       </c>
-      <c r="E172" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4068,9 +3550,6 @@
       <c r="D173" t="n">
         <v>189</v>
       </c>
-      <c r="E173" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4089,9 +3568,6 @@
       <c r="D174" t="n">
         <v>189</v>
       </c>
-      <c r="E174" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4110,9 +3586,6 @@
       <c r="D175" t="n">
         <v>189</v>
       </c>
-      <c r="E175" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4131,9 +3604,6 @@
       <c r="D176" t="n">
         <v>189</v>
       </c>
-      <c r="E176" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4152,9 +3622,6 @@
       <c r="D177" t="n">
         <v>189</v>
       </c>
-      <c r="E177" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4173,9 +3640,6 @@
       <c r="D178" t="n">
         <v>190</v>
       </c>
-      <c r="E178" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4194,9 +3658,6 @@
       <c r="D179" t="n">
         <v>190</v>
       </c>
-      <c r="E179" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4215,9 +3676,6 @@
       <c r="D180" t="n">
         <v>190</v>
       </c>
-      <c r="E180" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4236,9 +3694,6 @@
       <c r="D181" t="n">
         <v>190</v>
       </c>
-      <c r="E181" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4257,9 +3712,6 @@
       <c r="D182" t="n">
         <v>190</v>
       </c>
-      <c r="E182" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4278,9 +3730,6 @@
       <c r="D183" t="n">
         <v>190</v>
       </c>
-      <c r="E183" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4299,9 +3748,6 @@
       <c r="D184" t="n">
         <v>190</v>
       </c>
-      <c r="E184" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4320,9 +3766,6 @@
       <c r="D185" t="n">
         <v>190</v>
       </c>
-      <c r="E185" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4341,9 +3784,6 @@
       <c r="D186" t="n">
         <v>190</v>
       </c>
-      <c r="E186" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4362,9 +3802,6 @@
       <c r="D187" t="n">
         <v>190</v>
       </c>
-      <c r="E187" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4383,9 +3820,6 @@
       <c r="D188" t="n">
         <v>190</v>
       </c>
-      <c r="E188" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4404,9 +3838,6 @@
       <c r="D189" t="n">
         <v>190</v>
       </c>
-      <c r="E189" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4425,9 +3856,6 @@
       <c r="D190" t="n">
         <v>190</v>
       </c>
-      <c r="E190" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4446,9 +3874,6 @@
       <c r="D191" t="n">
         <v>190</v>
       </c>
-      <c r="E191" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4467,9 +3892,6 @@
       <c r="D192" t="n">
         <v>190</v>
       </c>
-      <c r="E192" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4488,9 +3910,6 @@
       <c r="D193" t="n">
         <v>190</v>
       </c>
-      <c r="E193" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4509,9 +3928,6 @@
       <c r="D194" t="n">
         <v>191</v>
       </c>
-      <c r="E194" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4530,9 +3946,6 @@
       <c r="D195" t="n">
         <v>191</v>
       </c>
-      <c r="E195" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4551,9 +3964,6 @@
       <c r="D196" t="n">
         <v>191</v>
       </c>
-      <c r="E196" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4572,9 +3982,6 @@
       <c r="D197" t="n">
         <v>191</v>
       </c>
-      <c r="E197" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4593,9 +4000,6 @@
       <c r="D198" t="n">
         <v>191</v>
       </c>
-      <c r="E198" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4614,9 +4018,6 @@
       <c r="D199" t="n">
         <v>191</v>
       </c>
-      <c r="E199" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -4635,9 +4036,6 @@
       <c r="D200" t="n">
         <v>191</v>
       </c>
-      <c r="E200" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -4656,9 +4054,6 @@
       <c r="D201" t="n">
         <v>191</v>
       </c>
-      <c r="E201" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -4677,9 +4072,6 @@
       <c r="D202" t="n">
         <v>191</v>
       </c>
-      <c r="E202" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -4698,9 +4090,6 @@
       <c r="D203" t="n">
         <v>191</v>
       </c>
-      <c r="E203" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -4719,9 +4108,6 @@
       <c r="D204" t="n">
         <v>191</v>
       </c>
-      <c r="E204" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -4740,9 +4126,6 @@
       <c r="D205" t="n">
         <v>191</v>
       </c>
-      <c r="E205" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -4761,9 +4144,6 @@
       <c r="D206" t="n">
         <v>191</v>
       </c>
-      <c r="E206" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -4782,9 +4162,6 @@
       <c r="D207" t="n">
         <v>191</v>
       </c>
-      <c r="E207" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -4803,9 +4180,6 @@
       <c r="D208" t="n">
         <v>191</v>
       </c>
-      <c r="E208" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -4824,9 +4198,6 @@
       <c r="D209" t="n">
         <v>191</v>
       </c>
-      <c r="E209" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -4845,9 +4216,6 @@
       <c r="D210" t="n">
         <v>192</v>
       </c>
-      <c r="E210" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -4866,9 +4234,6 @@
       <c r="D211" t="n">
         <v>192</v>
       </c>
-      <c r="E211" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -4887,9 +4252,6 @@
       <c r="D212" t="n">
         <v>192</v>
       </c>
-      <c r="E212" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -4908,9 +4270,6 @@
       <c r="D213" t="n">
         <v>192</v>
       </c>
-      <c r="E213" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -4929,9 +4288,6 @@
       <c r="D214" t="n">
         <v>192</v>
       </c>
-      <c r="E214" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -4950,9 +4306,6 @@
       <c r="D215" t="n">
         <v>192</v>
       </c>
-      <c r="E215" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -4971,9 +4324,6 @@
       <c r="D216" t="n">
         <v>192</v>
       </c>
-      <c r="E216" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -4992,9 +4342,6 @@
       <c r="D217" t="n">
         <v>192</v>
       </c>
-      <c r="E217" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5013,9 +4360,6 @@
       <c r="D218" t="n">
         <v>192</v>
       </c>
-      <c r="E218" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5034,9 +4378,6 @@
       <c r="D219" t="n">
         <v>192</v>
       </c>
-      <c r="E219" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5055,9 +4396,6 @@
       <c r="D220" t="n">
         <v>192</v>
       </c>
-      <c r="E220" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5076,9 +4414,6 @@
       <c r="D221" t="n">
         <v>192</v>
       </c>
-      <c r="E221" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5097,9 +4432,6 @@
       <c r="D222" t="n">
         <v>192</v>
       </c>
-      <c r="E222" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5118,9 +4450,6 @@
       <c r="D223" t="n">
         <v>192</v>
       </c>
-      <c r="E223" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5139,9 +4468,6 @@
       <c r="D224" t="n">
         <v>192</v>
       </c>
-      <c r="E224" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5160,9 +4486,6 @@
       <c r="D225" t="n">
         <v>192</v>
       </c>
-      <c r="E225" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5181,9 +4504,6 @@
       <c r="D226" t="n">
         <v>193</v>
       </c>
-      <c r="E226" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5202,9 +4522,6 @@
       <c r="D227" t="n">
         <v>193</v>
       </c>
-      <c r="E227" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5223,9 +4540,6 @@
       <c r="D228" t="n">
         <v>193</v>
       </c>
-      <c r="E228" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5244,9 +4558,6 @@
       <c r="D229" t="n">
         <v>193</v>
       </c>
-      <c r="E229" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5265,9 +4576,6 @@
       <c r="D230" t="n">
         <v>193</v>
       </c>
-      <c r="E230" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5286,9 +4594,6 @@
       <c r="D231" t="n">
         <v>193</v>
       </c>
-      <c r="E231" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5307,9 +4612,6 @@
       <c r="D232" t="n">
         <v>193</v>
       </c>
-      <c r="E232" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5328,9 +4630,6 @@
       <c r="D233" t="n">
         <v>193</v>
       </c>
-      <c r="E233" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5349,9 +4648,6 @@
       <c r="D234" t="n">
         <v>193</v>
       </c>
-      <c r="E234" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5370,9 +4666,6 @@
       <c r="D235" t="n">
         <v>193</v>
       </c>
-      <c r="E235" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5391,9 +4684,6 @@
       <c r="D236" t="n">
         <v>193</v>
       </c>
-      <c r="E236" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5412,9 +4702,6 @@
       <c r="D237" t="n">
         <v>193</v>
       </c>
-      <c r="E237" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5433,9 +4720,6 @@
       <c r="D238" t="n">
         <v>193</v>
       </c>
-      <c r="E238" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5454,9 +4738,6 @@
       <c r="D239" t="n">
         <v>193</v>
       </c>
-      <c r="E239" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5475,9 +4756,6 @@
       <c r="D240" t="n">
         <v>193</v>
       </c>
-      <c r="E240" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5496,9 +4774,6 @@
       <c r="D241" t="n">
         <v>193</v>
       </c>
-      <c r="E241" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5517,9 +4792,6 @@
       <c r="D242" t="n">
         <v>194</v>
       </c>
-      <c r="E242" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5538,9 +4810,6 @@
       <c r="D243" t="n">
         <v>194</v>
       </c>
-      <c r="E243" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -5559,9 +4828,6 @@
       <c r="D244" t="n">
         <v>194</v>
       </c>
-      <c r="E244" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -5580,9 +4846,6 @@
       <c r="D245" t="n">
         <v>194</v>
       </c>
-      <c r="E245" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -5601,9 +4864,6 @@
       <c r="D246" t="n">
         <v>194</v>
       </c>
-      <c r="E246" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -5622,9 +4882,6 @@
       <c r="D247" t="n">
         <v>194</v>
       </c>
-      <c r="E247" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -5643,9 +4900,6 @@
       <c r="D248" t="n">
         <v>194</v>
       </c>
-      <c r="E248" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -5664,9 +4918,6 @@
       <c r="D249" t="n">
         <v>194</v>
       </c>
-      <c r="E249" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -5685,9 +4936,6 @@
       <c r="D250" t="n">
         <v>194</v>
       </c>
-      <c r="E250" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -5706,9 +4954,6 @@
       <c r="D251" t="n">
         <v>194</v>
       </c>
-      <c r="E251" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -5727,9 +4972,6 @@
       <c r="D252" t="n">
         <v>194</v>
       </c>
-      <c r="E252" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -5748,9 +4990,6 @@
       <c r="D253" t="n">
         <v>194</v>
       </c>
-      <c r="E253" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -5769,9 +5008,6 @@
       <c r="D254" t="n">
         <v>194</v>
       </c>
-      <c r="E254" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -5790,9 +5026,6 @@
       <c r="D255" t="n">
         <v>194</v>
       </c>
-      <c r="E255" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -5811,9 +5044,6 @@
       <c r="D256" t="n">
         <v>194</v>
       </c>
-      <c r="E256" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -5832,9 +5062,6 @@
       <c r="D257" t="n">
         <v>194</v>
       </c>
-      <c r="E257" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -5853,9 +5080,6 @@
       <c r="D258" t="n">
         <v>195</v>
       </c>
-      <c r="E258" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -5874,9 +5098,6 @@
       <c r="D259" t="n">
         <v>195</v>
       </c>
-      <c r="E259" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -5895,9 +5116,6 @@
       <c r="D260" t="n">
         <v>195</v>
       </c>
-      <c r="E260" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -5916,9 +5134,6 @@
       <c r="D261" t="n">
         <v>195</v>
       </c>
-      <c r="E261" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -5937,9 +5152,6 @@
       <c r="D262" t="n">
         <v>195</v>
       </c>
-      <c r="E262" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -5958,9 +5170,6 @@
       <c r="D263" t="n">
         <v>195</v>
       </c>
-      <c r="E263" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -5979,9 +5188,6 @@
       <c r="D264" t="n">
         <v>195</v>
       </c>
-      <c r="E264" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6000,9 +5206,6 @@
       <c r="D265" t="n">
         <v>195</v>
       </c>
-      <c r="E265" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6021,9 +5224,6 @@
       <c r="D266" t="n">
         <v>195</v>
       </c>
-      <c r="E266" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6042,9 +5242,6 @@
       <c r="D267" t="n">
         <v>195</v>
       </c>
-      <c r="E267" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6063,9 +5260,6 @@
       <c r="D268" t="n">
         <v>195</v>
       </c>
-      <c r="E268" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6084,9 +5278,6 @@
       <c r="D269" t="n">
         <v>195</v>
       </c>
-      <c r="E269" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6105,9 +5296,6 @@
       <c r="D270" t="n">
         <v>195</v>
       </c>
-      <c r="E270" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6126,9 +5314,6 @@
       <c r="D271" t="n">
         <v>195</v>
       </c>
-      <c r="E271" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6147,9 +5332,6 @@
       <c r="D272" t="n">
         <v>195</v>
       </c>
-      <c r="E272" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6168,9 +5350,6 @@
       <c r="D273" t="n">
         <v>195</v>
       </c>
-      <c r="E273" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6189,9 +5368,6 @@
       <c r="D274" t="n">
         <v>196</v>
       </c>
-      <c r="E274" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -6210,9 +5386,6 @@
       <c r="D275" t="n">
         <v>196</v>
       </c>
-      <c r="E275" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -6231,9 +5404,6 @@
       <c r="D276" t="n">
         <v>196</v>
       </c>
-      <c r="E276" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6252,9 +5422,6 @@
       <c r="D277" t="n">
         <v>196</v>
       </c>
-      <c r="E277" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6273,9 +5440,6 @@
       <c r="D278" t="n">
         <v>196</v>
       </c>
-      <c r="E278" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6294,9 +5458,6 @@
       <c r="D279" t="n">
         <v>196</v>
       </c>
-      <c r="E279" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6315,9 +5476,6 @@
       <c r="D280" t="n">
         <v>196</v>
       </c>
-      <c r="E280" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6336,9 +5494,6 @@
       <c r="D281" t="n">
         <v>196</v>
       </c>
-      <c r="E281" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6357,9 +5512,6 @@
       <c r="D282" t="n">
         <v>196</v>
       </c>
-      <c r="E282" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6378,9 +5530,6 @@
       <c r="D283" t="n">
         <v>196</v>
       </c>
-      <c r="E283" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6399,9 +5548,6 @@
       <c r="D284" t="n">
         <v>196</v>
       </c>
-      <c r="E284" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6420,9 +5566,6 @@
       <c r="D285" t="n">
         <v>196</v>
       </c>
-      <c r="E285" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6441,9 +5584,6 @@
       <c r="D286" t="n">
         <v>196</v>
       </c>
-      <c r="E286" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -6462,9 +5602,6 @@
       <c r="D287" t="n">
         <v>196</v>
       </c>
-      <c r="E287" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -6483,9 +5620,6 @@
       <c r="D288" t="n">
         <v>196</v>
       </c>
-      <c r="E288" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -6504,9 +5638,6 @@
       <c r="D289" t="n">
         <v>196</v>
       </c>
-      <c r="E289" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -6525,9 +5656,6 @@
       <c r="D290" t="n">
         <v>197</v>
       </c>
-      <c r="E290" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -6546,9 +5674,6 @@
       <c r="D291" t="n">
         <v>197</v>
       </c>
-      <c r="E291" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -6567,9 +5692,6 @@
       <c r="D292" t="n">
         <v>197</v>
       </c>
-      <c r="E292" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -6588,9 +5710,6 @@
       <c r="D293" t="n">
         <v>197</v>
       </c>
-      <c r="E293" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -6609,9 +5728,6 @@
       <c r="D294" t="n">
         <v>197</v>
       </c>
-      <c r="E294" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -6630,9 +5746,6 @@
       <c r="D295" t="n">
         <v>197</v>
       </c>
-      <c r="E295" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -6651,9 +5764,6 @@
       <c r="D296" t="n">
         <v>197</v>
       </c>
-      <c r="E296" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -6672,9 +5782,6 @@
       <c r="D297" t="n">
         <v>197</v>
       </c>
-      <c r="E297" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -6693,9 +5800,6 @@
       <c r="D298" t="n">
         <v>197</v>
       </c>
-      <c r="E298" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -6714,9 +5818,6 @@
       <c r="D299" t="n">
         <v>197</v>
       </c>
-      <c r="E299" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -6735,9 +5836,6 @@
       <c r="D300" t="n">
         <v>197</v>
       </c>
-      <c r="E300" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -6756,9 +5854,6 @@
       <c r="D301" t="n">
         <v>197</v>
       </c>
-      <c r="E301" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -6777,9 +5872,6 @@
       <c r="D302" t="n">
         <v>197</v>
       </c>
-      <c r="E302" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -6798,9 +5890,6 @@
       <c r="D303" t="n">
         <v>197</v>
       </c>
-      <c r="E303" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -6819,9 +5908,6 @@
       <c r="D304" t="n">
         <v>197</v>
       </c>
-      <c r="E304" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -6840,9 +5926,6 @@
       <c r="D305" t="n">
         <v>197</v>
       </c>
-      <c r="E305" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -6861,9 +5944,6 @@
       <c r="D306" t="n">
         <v>198</v>
       </c>
-      <c r="E306" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -6882,9 +5962,6 @@
       <c r="D307" t="n">
         <v>198</v>
       </c>
-      <c r="E307" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -6903,9 +5980,6 @@
       <c r="D308" t="n">
         <v>198</v>
       </c>
-      <c r="E308" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -6924,9 +5998,6 @@
       <c r="D309" t="n">
         <v>198</v>
       </c>
-      <c r="E309" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -6945,9 +6016,6 @@
       <c r="D310" t="n">
         <v>198</v>
       </c>
-      <c r="E310" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -6966,9 +6034,6 @@
       <c r="D311" t="n">
         <v>198</v>
       </c>
-      <c r="E311" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -6987,9 +6052,6 @@
       <c r="D312" t="n">
         <v>198</v>
       </c>
-      <c r="E312" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -7008,9 +6070,6 @@
       <c r="D313" t="n">
         <v>198</v>
       </c>
-      <c r="E313" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7029,9 +6088,6 @@
       <c r="D314" t="n">
         <v>198</v>
       </c>
-      <c r="E314" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -7050,9 +6106,6 @@
       <c r="D315" t="n">
         <v>198</v>
       </c>
-      <c r="E315" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -7071,9 +6124,6 @@
       <c r="D316" t="n">
         <v>198</v>
       </c>
-      <c r="E316" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -7092,9 +6142,6 @@
       <c r="D317" t="n">
         <v>198</v>
       </c>
-      <c r="E317" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -7113,9 +6160,6 @@
       <c r="D318" t="n">
         <v>198</v>
       </c>
-      <c r="E318" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -7134,9 +6178,6 @@
       <c r="D319" t="n">
         <v>198</v>
       </c>
-      <c r="E319" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -7155,9 +6196,6 @@
       <c r="D320" t="n">
         <v>198</v>
       </c>
-      <c r="E320" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -7176,9 +6214,6 @@
       <c r="D321" t="n">
         <v>198</v>
       </c>
-      <c r="E321" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -7197,9 +6232,6 @@
       <c r="D322" t="n">
         <v>199</v>
       </c>
-      <c r="E322" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -7218,9 +6250,6 @@
       <c r="D323" t="n">
         <v>199</v>
       </c>
-      <c r="E323" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -7239,9 +6268,6 @@
       <c r="D324" t="n">
         <v>199</v>
       </c>
-      <c r="E324" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -7260,9 +6286,6 @@
       <c r="D325" t="n">
         <v>199</v>
       </c>
-      <c r="E325" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -7281,9 +6304,6 @@
       <c r="D326" t="n">
         <v>199</v>
       </c>
-      <c r="E326" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -7302,9 +6322,6 @@
       <c r="D327" t="n">
         <v>199</v>
       </c>
-      <c r="E327" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -7323,9 +6340,6 @@
       <c r="D328" t="n">
         <v>199</v>
       </c>
-      <c r="E328" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -7344,9 +6358,6 @@
       <c r="D329" t="n">
         <v>199</v>
       </c>
-      <c r="E329" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -7365,9 +6376,6 @@
       <c r="D330" t="n">
         <v>199</v>
       </c>
-      <c r="E330" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -7386,9 +6394,6 @@
       <c r="D331" t="n">
         <v>199</v>
       </c>
-      <c r="E331" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -7407,9 +6412,6 @@
       <c r="D332" t="n">
         <v>199</v>
       </c>
-      <c r="E332" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -7428,9 +6430,6 @@
       <c r="D333" t="n">
         <v>199</v>
       </c>
-      <c r="E333" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -7449,9 +6448,6 @@
       <c r="D334" t="n">
         <v>199</v>
       </c>
-      <c r="E334" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -7470,9 +6466,6 @@
       <c r="D335" t="n">
         <v>199</v>
       </c>
-      <c r="E335" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -7491,9 +6484,6 @@
       <c r="D336" t="n">
         <v>199</v>
       </c>
-      <c r="E336" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -7512,9 +6502,6 @@
       <c r="D337" t="n">
         <v>199</v>
       </c>
-      <c r="E337" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -7533,9 +6520,6 @@
       <c r="D338" t="n">
         <v>200</v>
       </c>
-      <c r="E338" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -7554,9 +6538,6 @@
       <c r="D339" t="n">
         <v>200</v>
       </c>
-      <c r="E339" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -7575,9 +6556,6 @@
       <c r="D340" t="n">
         <v>200</v>
       </c>
-      <c r="E340" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -7596,9 +6574,6 @@
       <c r="D341" t="n">
         <v>200</v>
       </c>
-      <c r="E341" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -7617,9 +6592,6 @@
       <c r="D342" t="n">
         <v>200</v>
       </c>
-      <c r="E342" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -7638,9 +6610,6 @@
       <c r="D343" t="n">
         <v>200</v>
       </c>
-      <c r="E343" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -7659,9 +6628,6 @@
       <c r="D344" t="n">
         <v>200</v>
       </c>
-      <c r="E344" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -7680,9 +6646,6 @@
       <c r="D345" t="n">
         <v>200</v>
       </c>
-      <c r="E345" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -7701,9 +6664,6 @@
       <c r="D346" t="n">
         <v>200</v>
       </c>
-      <c r="E346" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -7722,9 +6682,6 @@
       <c r="D347" t="n">
         <v>200</v>
       </c>
-      <c r="E347" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -7743,9 +6700,6 @@
       <c r="D348" t="n">
         <v>200</v>
       </c>
-      <c r="E348" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -7764,9 +6718,6 @@
       <c r="D349" t="n">
         <v>200</v>
       </c>
-      <c r="E349" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -7785,9 +6736,6 @@
       <c r="D350" t="n">
         <v>200</v>
       </c>
-      <c r="E350" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -7806,9 +6754,6 @@
       <c r="D351" t="n">
         <v>200</v>
       </c>
-      <c r="E351" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -7827,9 +6772,6 @@
       <c r="D352" t="n">
         <v>200</v>
       </c>
-      <c r="E352" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -7848,9 +6790,6 @@
       <c r="D353" t="n">
         <v>200</v>
       </c>
-      <c r="E353" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -7869,9 +6808,6 @@
       <c r="D354" t="n">
         <v>201</v>
       </c>
-      <c r="E354" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -7890,9 +6826,6 @@
       <c r="D355" t="n">
         <v>201</v>
       </c>
-      <c r="E355" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -7911,9 +6844,6 @@
       <c r="D356" t="n">
         <v>201</v>
       </c>
-      <c r="E356" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -7932,9 +6862,6 @@
       <c r="D357" t="n">
         <v>201</v>
       </c>
-      <c r="E357" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -7953,9 +6880,6 @@
       <c r="D358" t="n">
         <v>201</v>
       </c>
-      <c r="E358" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -7974,9 +6898,6 @@
       <c r="D359" t="n">
         <v>201</v>
       </c>
-      <c r="E359" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -7995,9 +6916,6 @@
       <c r="D360" t="n">
         <v>201</v>
       </c>
-      <c r="E360" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -8016,9 +6934,6 @@
       <c r="D361" t="n">
         <v>201</v>
       </c>
-      <c r="E361" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -8037,9 +6952,6 @@
       <c r="D362" t="n">
         <v>201</v>
       </c>
-      <c r="E362" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -8058,9 +6970,6 @@
       <c r="D363" t="n">
         <v>201</v>
       </c>
-      <c r="E363" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -8079,9 +6988,6 @@
       <c r="D364" t="n">
         <v>201</v>
       </c>
-      <c r="E364" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -8100,9 +7006,6 @@
       <c r="D365" t="n">
         <v>201</v>
       </c>
-      <c r="E365" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -8121,9 +7024,6 @@
       <c r="D366" t="n">
         <v>201</v>
       </c>
-      <c r="E366" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -8142,9 +7042,6 @@
       <c r="D367" t="n">
         <v>201</v>
       </c>
-      <c r="E367" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -8163,9 +7060,6 @@
       <c r="D368" t="n">
         <v>201</v>
       </c>
-      <c r="E368" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -8184,9 +7078,6 @@
       <c r="D369" t="n">
         <v>201</v>
       </c>
-      <c r="E369" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -8205,9 +7096,6 @@
       <c r="D370" t="n">
         <v>202</v>
       </c>
-      <c r="E370" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -8226,9 +7114,6 @@
       <c r="D371" t="n">
         <v>202</v>
       </c>
-      <c r="E371" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -8247,9 +7132,6 @@
       <c r="D372" t="n">
         <v>202</v>
       </c>
-      <c r="E372" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -8268,9 +7150,6 @@
       <c r="D373" t="n">
         <v>202</v>
       </c>
-      <c r="E373" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -8289,9 +7168,6 @@
       <c r="D374" t="n">
         <v>202</v>
       </c>
-      <c r="E374" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -8310,9 +7186,6 @@
       <c r="D375" t="n">
         <v>202</v>
       </c>
-      <c r="E375" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -8331,9 +7204,6 @@
       <c r="D376" t="n">
         <v>202</v>
       </c>
-      <c r="E376" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -8352,9 +7222,6 @@
       <c r="D377" t="n">
         <v>202</v>
       </c>
-      <c r="E377" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -8373,9 +7240,6 @@
       <c r="D378" t="n">
         <v>202</v>
       </c>
-      <c r="E378" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -8394,9 +7258,6 @@
       <c r="D379" t="n">
         <v>202</v>
       </c>
-      <c r="E379" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -8415,9 +7276,6 @@
       <c r="D380" t="n">
         <v>202</v>
       </c>
-      <c r="E380" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -8436,9 +7294,6 @@
       <c r="D381" t="n">
         <v>202</v>
       </c>
-      <c r="E381" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -8457,9 +7312,6 @@
       <c r="D382" t="n">
         <v>202</v>
       </c>
-      <c r="E382" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -8478,9 +7330,6 @@
       <c r="D383" t="n">
         <v>202</v>
       </c>
-      <c r="E383" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -8499,9 +7348,6 @@
       <c r="D384" t="n">
         <v>202</v>
       </c>
-      <c r="E384" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -8520,9 +7366,6 @@
       <c r="D385" t="n">
         <v>202</v>
       </c>
-      <c r="E385" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -8541,9 +7384,6 @@
       <c r="D386" t="n">
         <v>203</v>
       </c>
-      <c r="E386" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -8562,9 +7402,6 @@
       <c r="D387" t="n">
         <v>203</v>
       </c>
-      <c r="E387" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -8583,9 +7420,6 @@
       <c r="D388" t="n">
         <v>203</v>
       </c>
-      <c r="E388" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -8604,9 +7438,6 @@
       <c r="D389" t="n">
         <v>203</v>
       </c>
-      <c r="E389" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -8625,9 +7456,6 @@
       <c r="D390" t="n">
         <v>203</v>
       </c>
-      <c r="E390" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -8646,9 +7474,6 @@
       <c r="D391" t="n">
         <v>203</v>
       </c>
-      <c r="E391" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -8667,9 +7492,6 @@
       <c r="D392" t="n">
         <v>203</v>
       </c>
-      <c r="E392" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -8688,9 +7510,6 @@
       <c r="D393" t="n">
         <v>203</v>
       </c>
-      <c r="E393" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -8709,9 +7528,6 @@
       <c r="D394" t="n">
         <v>203</v>
       </c>
-      <c r="E394" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -8730,9 +7546,6 @@
       <c r="D395" t="n">
         <v>203</v>
       </c>
-      <c r="E395" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -8751,9 +7564,6 @@
       <c r="D396" t="n">
         <v>203</v>
       </c>
-      <c r="E396" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -8772,9 +7582,6 @@
       <c r="D397" t="n">
         <v>203</v>
       </c>
-      <c r="E397" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -8793,9 +7600,6 @@
       <c r="D398" t="n">
         <v>203</v>
       </c>
-      <c r="E398" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -8814,9 +7618,6 @@
       <c r="D399" t="n">
         <v>203</v>
       </c>
-      <c r="E399" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -8835,9 +7636,6 @@
       <c r="D400" t="n">
         <v>203</v>
       </c>
-      <c r="E400" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -8856,9 +7654,6 @@
       <c r="D401" t="n">
         <v>203</v>
       </c>
-      <c r="E401" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -8877,9 +7672,6 @@
       <c r="D402" t="n">
         <v>204</v>
       </c>
-      <c r="E402" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -8898,9 +7690,6 @@
       <c r="D403" t="n">
         <v>204</v>
       </c>
-      <c r="E403" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -8919,9 +7708,6 @@
       <c r="D404" t="n">
         <v>204</v>
       </c>
-      <c r="E404" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -8940,9 +7726,6 @@
       <c r="D405" t="n">
         <v>204</v>
       </c>
-      <c r="E405" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -8961,9 +7744,6 @@
       <c r="D406" t="n">
         <v>204</v>
       </c>
-      <c r="E406" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -8982,9 +7762,6 @@
       <c r="D407" t="n">
         <v>204</v>
       </c>
-      <c r="E407" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -9003,9 +7780,6 @@
       <c r="D408" t="n">
         <v>204</v>
       </c>
-      <c r="E408" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -9024,9 +7798,6 @@
       <c r="D409" t="n">
         <v>204</v>
       </c>
-      <c r="E409" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -9045,9 +7816,6 @@
       <c r="D410" t="n">
         <v>204</v>
       </c>
-      <c r="E410" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -9066,9 +7834,6 @@
       <c r="D411" t="n">
         <v>204</v>
       </c>
-      <c r="E411" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -9087,9 +7852,6 @@
       <c r="D412" t="n">
         <v>204</v>
       </c>
-      <c r="E412" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -9108,9 +7870,6 @@
       <c r="D413" t="n">
         <v>204</v>
       </c>
-      <c r="E413" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -9129,9 +7888,6 @@
       <c r="D414" t="n">
         <v>204</v>
       </c>
-      <c r="E414" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -9150,9 +7906,6 @@
       <c r="D415" t="n">
         <v>204</v>
       </c>
-      <c r="E415" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -9171,9 +7924,6 @@
       <c r="D416" t="n">
         <v>204</v>
       </c>
-      <c r="E416" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -9192,9 +7942,6 @@
       <c r="D417" t="n">
         <v>204</v>
       </c>
-      <c r="E417" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -9213,9 +7960,6 @@
       <c r="D418" t="n">
         <v>205</v>
       </c>
-      <c r="E418" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -9234,9 +7978,6 @@
       <c r="D419" t="n">
         <v>205</v>
       </c>
-      <c r="E419" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -9255,9 +7996,6 @@
       <c r="D420" t="n">
         <v>205</v>
       </c>
-      <c r="E420" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -9276,9 +8014,6 @@
       <c r="D421" t="n">
         <v>205</v>
       </c>
-      <c r="E421" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -9297,9 +8032,6 @@
       <c r="D422" t="n">
         <v>205</v>
       </c>
-      <c r="E422" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -9318,9 +8050,6 @@
       <c r="D423" t="n">
         <v>205</v>
       </c>
-      <c r="E423" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -9339,9 +8068,6 @@
       <c r="D424" t="n">
         <v>205</v>
       </c>
-      <c r="E424" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -9360,9 +8086,6 @@
       <c r="D425" t="n">
         <v>205</v>
       </c>
-      <c r="E425" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -9381,9 +8104,6 @@
       <c r="D426" t="n">
         <v>205</v>
       </c>
-      <c r="E426" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -9402,9 +8122,6 @@
       <c r="D427" t="n">
         <v>205</v>
       </c>
-      <c r="E427" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -9423,9 +8140,6 @@
       <c r="D428" t="n">
         <v>205</v>
       </c>
-      <c r="E428" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -9444,9 +8158,6 @@
       <c r="D429" t="n">
         <v>205</v>
       </c>
-      <c r="E429" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -9465,9 +8176,6 @@
       <c r="D430" t="n">
         <v>205</v>
       </c>
-      <c r="E430" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -9486,9 +8194,6 @@
       <c r="D431" t="n">
         <v>205</v>
       </c>
-      <c r="E431" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -9507,9 +8212,6 @@
       <c r="D432" t="n">
         <v>205</v>
       </c>
-      <c r="E432" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -9528,9 +8230,6 @@
       <c r="D433" t="n">
         <v>205</v>
       </c>
-      <c r="E433" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -9549,9 +8248,6 @@
       <c r="D434" t="n">
         <v>206</v>
       </c>
-      <c r="E434" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -9570,9 +8266,6 @@
       <c r="D435" t="n">
         <v>206</v>
       </c>
-      <c r="E435" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -9591,9 +8284,6 @@
       <c r="D436" t="n">
         <v>206</v>
       </c>
-      <c r="E436" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -9612,9 +8302,6 @@
       <c r="D437" t="n">
         <v>206</v>
       </c>
-      <c r="E437" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -9633,9 +8320,6 @@
       <c r="D438" t="n">
         <v>206</v>
       </c>
-      <c r="E438" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -9654,9 +8338,6 @@
       <c r="D439" t="n">
         <v>206</v>
       </c>
-      <c r="E439" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -9675,9 +8356,6 @@
       <c r="D440" t="n">
         <v>206</v>
       </c>
-      <c r="E440" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -9696,9 +8374,6 @@
       <c r="D441" t="n">
         <v>206</v>
       </c>
-      <c r="E441" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -9717,9 +8392,6 @@
       <c r="D442" t="n">
         <v>206</v>
       </c>
-      <c r="E442" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -9738,9 +8410,6 @@
       <c r="D443" t="n">
         <v>206</v>
       </c>
-      <c r="E443" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -9759,9 +8428,6 @@
       <c r="D444" t="n">
         <v>206</v>
       </c>
-      <c r="E444" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -9780,9 +8446,6 @@
       <c r="D445" t="n">
         <v>206</v>
       </c>
-      <c r="E445" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -9801,9 +8464,6 @@
       <c r="D446" t="n">
         <v>206</v>
       </c>
-      <c r="E446" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -9822,9 +8482,6 @@
       <c r="D447" t="n">
         <v>206</v>
       </c>
-      <c r="E447" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -9843,9 +8500,6 @@
       <c r="D448" t="n">
         <v>206</v>
       </c>
-      <c r="E448" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -9864,9 +8518,6 @@
       <c r="D449" t="n">
         <v>207</v>
       </c>
-      <c r="E449" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -9885,9 +8536,6 @@
       <c r="D450" t="n">
         <v>207</v>
       </c>
-      <c r="E450" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -9906,9 +8554,6 @@
       <c r="D451" t="n">
         <v>207</v>
       </c>
-      <c r="E451" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -9927,9 +8572,6 @@
       <c r="D452" t="n">
         <v>207</v>
       </c>
-      <c r="E452" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -9948,9 +8590,6 @@
       <c r="D453" t="n">
         <v>207</v>
       </c>
-      <c r="E453" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -9969,9 +8608,6 @@
       <c r="D454" t="n">
         <v>207</v>
       </c>
-      <c r="E454" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -9990,9 +8626,6 @@
       <c r="D455" t="n">
         <v>207</v>
       </c>
-      <c r="E455" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -10011,9 +8644,6 @@
       <c r="D456" t="n">
         <v>207</v>
       </c>
-      <c r="E456" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -10032,9 +8662,6 @@
       <c r="D457" t="n">
         <v>207</v>
       </c>
-      <c r="E457" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -10053,9 +8680,6 @@
       <c r="D458" t="n">
         <v>207</v>
       </c>
-      <c r="E458" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -10074,9 +8698,6 @@
       <c r="D459" t="n">
         <v>207</v>
       </c>
-      <c r="E459" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -10095,9 +8716,6 @@
       <c r="D460" t="n">
         <v>207</v>
       </c>
-      <c r="E460" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -10116,9 +8734,6 @@
       <c r="D461" t="n">
         <v>207</v>
       </c>
-      <c r="E461" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -10137,9 +8752,6 @@
       <c r="D462" t="n">
         <v>207</v>
       </c>
-      <c r="E462" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -10158,9 +8770,6 @@
       <c r="D463" t="n">
         <v>207</v>
       </c>
-      <c r="E463" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -10179,9 +8788,6 @@
       <c r="D464" t="n">
         <v>207</v>
       </c>
-      <c r="E464" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -10200,9 +8806,6 @@
       <c r="D465" t="n">
         <v>208</v>
       </c>
-      <c r="E465" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -10221,9 +8824,6 @@
       <c r="D466" t="n">
         <v>208</v>
       </c>
-      <c r="E466" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -10242,9 +8842,6 @@
       <c r="D467" t="n">
         <v>208</v>
       </c>
-      <c r="E467" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -10263,9 +8860,6 @@
       <c r="D468" t="n">
         <v>208</v>
       </c>
-      <c r="E468" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -10284,9 +8878,6 @@
       <c r="D469" t="n">
         <v>208</v>
       </c>
-      <c r="E469" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -10305,9 +8896,6 @@
       <c r="D470" t="n">
         <v>208</v>
       </c>
-      <c r="E470" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -10326,9 +8914,6 @@
       <c r="D471" t="n">
         <v>208</v>
       </c>
-      <c r="E471" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -10347,9 +8932,6 @@
       <c r="D472" t="n">
         <v>208</v>
       </c>
-      <c r="E472" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -10368,9 +8950,6 @@
       <c r="D473" t="n">
         <v>208</v>
       </c>
-      <c r="E473" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -10389,9 +8968,6 @@
       <c r="D474" t="n">
         <v>208</v>
       </c>
-      <c r="E474" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -10410,9 +8986,6 @@
       <c r="D475" t="n">
         <v>208</v>
       </c>
-      <c r="E475" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -10431,9 +9004,6 @@
       <c r="D476" t="n">
         <v>208</v>
       </c>
-      <c r="E476" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -10452,9 +9022,6 @@
       <c r="D477" t="n">
         <v>208</v>
       </c>
-      <c r="E477" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -10473,9 +9040,6 @@
       <c r="D478" t="n">
         <v>208</v>
       </c>
-      <c r="E478" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -10494,9 +9058,6 @@
       <c r="D479" t="n">
         <v>208</v>
       </c>
-      <c r="E479" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -10515,9 +9076,6 @@
       <c r="D480" t="n">
         <v>208</v>
       </c>
-      <c r="E480" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -10536,9 +9094,6 @@
       <c r="D481" t="n">
         <v>209</v>
       </c>
-      <c r="E481" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -10557,9 +9112,6 @@
       <c r="D482" t="n">
         <v>209</v>
       </c>
-      <c r="E482" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -10578,9 +9130,6 @@
       <c r="D483" t="n">
         <v>209</v>
       </c>
-      <c r="E483" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -10599,9 +9148,6 @@
       <c r="D484" t="n">
         <v>209</v>
       </c>
-      <c r="E484" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -10620,9 +9166,6 @@
       <c r="D485" t="n">
         <v>209</v>
       </c>
-      <c r="E485" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -10641,9 +9184,6 @@
       <c r="D486" t="n">
         <v>209</v>
       </c>
-      <c r="E486" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -10662,9 +9202,6 @@
       <c r="D487" t="n">
         <v>209</v>
       </c>
-      <c r="E487" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -10683,9 +9220,6 @@
       <c r="D488" t="n">
         <v>209</v>
       </c>
-      <c r="E488" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -10704,9 +9238,6 @@
       <c r="D489" t="n">
         <v>210</v>
       </c>
-      <c r="E489" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -10725,9 +9256,6 @@
       <c r="D490" t="n">
         <v>210</v>
       </c>
-      <c r="E490" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -10746,9 +9274,6 @@
       <c r="D491" t="n">
         <v>210</v>
       </c>
-      <c r="E491" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -10767,9 +9292,6 @@
       <c r="D492" t="n">
         <v>210</v>
       </c>
-      <c r="E492" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -10788,9 +9310,6 @@
       <c r="D493" t="n">
         <v>210</v>
       </c>
-      <c r="E493" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -10809,9 +9328,6 @@
       <c r="D494" t="n">
         <v>210</v>
       </c>
-      <c r="E494" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -10830,9 +9346,6 @@
       <c r="D495" t="n">
         <v>210</v>
       </c>
-      <c r="E495" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -10851,9 +9364,6 @@
       <c r="D496" t="n">
         <v>210</v>
       </c>
-      <c r="E496" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -10872,9 +9382,6 @@
       <c r="D497" t="n">
         <v>211</v>
       </c>
-      <c r="E497" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -10893,9 +9400,6 @@
       <c r="D498" t="n">
         <v>211</v>
       </c>
-      <c r="E498" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -10914,9 +9418,6 @@
       <c r="D499" t="n">
         <v>211</v>
       </c>
-      <c r="E499" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -10935,9 +9436,6 @@
       <c r="D500" t="n">
         <v>211</v>
       </c>
-      <c r="E500" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -10956,9 +9454,6 @@
       <c r="D501" t="n">
         <v>211</v>
       </c>
-      <c r="E501" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -10977,9 +9472,6 @@
       <c r="D502" t="n">
         <v>211</v>
       </c>
-      <c r="E502" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -10998,9 +9490,6 @@
       <c r="D503" t="n">
         <v>211</v>
       </c>
-      <c r="E503" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -11019,9 +9508,6 @@
       <c r="D504" t="n">
         <v>211</v>
       </c>
-      <c r="E504" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -11040,9 +9526,6 @@
       <c r="D505" t="n">
         <v>211</v>
       </c>
-      <c r="E505" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -11061,9 +9544,6 @@
       <c r="D506" t="n">
         <v>211</v>
       </c>
-      <c r="E506" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -11082,9 +9562,6 @@
       <c r="D507" t="n">
         <v>211</v>
       </c>
-      <c r="E507" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -11103,9 +9580,6 @@
       <c r="D508" t="n">
         <v>211</v>
       </c>
-      <c r="E508" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -11124,9 +9598,6 @@
       <c r="D509" t="n">
         <v>211</v>
       </c>
-      <c r="E509" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -11145,9 +9616,6 @@
       <c r="D510" t="n">
         <v>211</v>
       </c>
-      <c r="E510" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -11166,9 +9634,6 @@
       <c r="D511" t="n">
         <v>211</v>
       </c>
-      <c r="E511" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -11187,9 +9652,6 @@
       <c r="D512" t="n">
         <v>211</v>
       </c>
-      <c r="E512" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -11208,9 +9670,6 @@
       <c r="D513" t="n">
         <v>212</v>
       </c>
-      <c r="E513" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -11229,9 +9688,6 @@
       <c r="D514" t="n">
         <v>212</v>
       </c>
-      <c r="E514" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -11250,9 +9706,6 @@
       <c r="D515" t="n">
         <v>212</v>
       </c>
-      <c r="E515" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -11271,9 +9724,6 @@
       <c r="D516" t="n">
         <v>212</v>
       </c>
-      <c r="E516" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -11292,9 +9742,6 @@
       <c r="D517" t="n">
         <v>212</v>
       </c>
-      <c r="E517" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -11313,9 +9760,6 @@
       <c r="D518" t="n">
         <v>212</v>
       </c>
-      <c r="E518" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -11334,9 +9778,6 @@
       <c r="D519" t="n">
         <v>212</v>
       </c>
-      <c r="E519" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -11355,9 +9796,6 @@
       <c r="D520" t="n">
         <v>212</v>
       </c>
-      <c r="E520" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -11376,9 +9814,6 @@
       <c r="D521" t="n">
         <v>213</v>
       </c>
-      <c r="E521" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -11397,9 +9832,6 @@
       <c r="D522" t="n">
         <v>213</v>
       </c>
-      <c r="E522" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -11418,9 +9850,6 @@
       <c r="D523" t="n">
         <v>213</v>
       </c>
-      <c r="E523" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -11439,9 +9868,6 @@
       <c r="D524" t="n">
         <v>213</v>
       </c>
-      <c r="E524" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -11460,9 +9886,6 @@
       <c r="D525" t="n">
         <v>213</v>
       </c>
-      <c r="E525" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -11481,9 +9904,6 @@
       <c r="D526" t="n">
         <v>213</v>
       </c>
-      <c r="E526" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -11502,9 +9922,6 @@
       <c r="D527" t="n">
         <v>213</v>
       </c>
-      <c r="E527" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -11523,9 +9940,6 @@
       <c r="D528" t="n">
         <v>213</v>
       </c>
-      <c r="E528" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -11544,9 +9958,6 @@
       <c r="D529" t="n">
         <v>213</v>
       </c>
-      <c r="E529" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -11565,9 +9976,6 @@
       <c r="D530" t="n">
         <v>213</v>
       </c>
-      <c r="E530" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -11586,9 +9994,6 @@
       <c r="D531" t="n">
         <v>213</v>
       </c>
-      <c r="E531" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -11607,9 +10012,6 @@
       <c r="D532" t="n">
         <v>213</v>
       </c>
-      <c r="E532" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -11628,9 +10030,6 @@
       <c r="D533" t="n">
         <v>213</v>
       </c>
-      <c r="E533" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -11649,9 +10048,6 @@
       <c r="D534" t="n">
         <v>213</v>
       </c>
-      <c r="E534" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -11670,9 +10066,6 @@
       <c r="D535" t="n">
         <v>213</v>
       </c>
-      <c r="E535" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -11691,9 +10084,6 @@
       <c r="D536" t="n">
         <v>213</v>
       </c>
-      <c r="E536" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -11712,9 +10102,6 @@
       <c r="D537" t="n">
         <v>214</v>
       </c>
-      <c r="E537" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -11733,9 +10120,6 @@
       <c r="D538" t="n">
         <v>214</v>
       </c>
-      <c r="E538" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -11754,9 +10138,6 @@
       <c r="D539" t="n">
         <v>214</v>
       </c>
-      <c r="E539" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -11775,9 +10156,6 @@
       <c r="D540" t="n">
         <v>214</v>
       </c>
-      <c r="E540" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -11796,9 +10174,6 @@
       <c r="D541" t="n">
         <v>214</v>
       </c>
-      <c r="E541" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -11817,9 +10192,6 @@
       <c r="D542" t="n">
         <v>214</v>
       </c>
-      <c r="E542" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -11838,9 +10210,6 @@
       <c r="D543" t="n">
         <v>214</v>
       </c>
-      <c r="E543" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -11859,9 +10228,6 @@
       <c r="D544" t="n">
         <v>214</v>
       </c>
-      <c r="E544" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -11880,9 +10246,6 @@
       <c r="D545" t="n">
         <v>214</v>
       </c>
-      <c r="E545" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -11901,9 +10264,6 @@
       <c r="D546" t="n">
         <v>214</v>
       </c>
-      <c r="E546" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -11922,9 +10282,6 @@
       <c r="D547" t="n">
         <v>214</v>
       </c>
-      <c r="E547" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -11943,9 +10300,6 @@
       <c r="D548" t="n">
         <v>214</v>
       </c>
-      <c r="E548" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -11964,9 +10318,6 @@
       <c r="D549" t="n">
         <v>214</v>
       </c>
-      <c r="E549" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -11985,9 +10336,6 @@
       <c r="D550" t="n">
         <v>214</v>
       </c>
-      <c r="E550" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -12006,9 +10354,6 @@
       <c r="D551" t="n">
         <v>214</v>
       </c>
-      <c r="E551" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -12027,9 +10372,6 @@
       <c r="D552" t="n">
         <v>214</v>
       </c>
-      <c r="E552" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -12048,9 +10390,6 @@
       <c r="D553" t="n">
         <v>215</v>
       </c>
-      <c r="E553" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -12069,9 +10408,6 @@
       <c r="D554" t="n">
         <v>215</v>
       </c>
-      <c r="E554" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -12090,9 +10426,6 @@
       <c r="D555" t="n">
         <v>215</v>
       </c>
-      <c r="E555" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -12111,9 +10444,6 @@
       <c r="D556" t="n">
         <v>215</v>
       </c>
-      <c r="E556" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -12132,9 +10462,6 @@
       <c r="D557" t="n">
         <v>215</v>
       </c>
-      <c r="E557" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -12153,9 +10480,6 @@
       <c r="D558" t="n">
         <v>215</v>
       </c>
-      <c r="E558" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -12174,9 +10498,6 @@
       <c r="D559" t="n">
         <v>215</v>
       </c>
-      <c r="E559" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -12195,9 +10516,6 @@
       <c r="D560" t="n">
         <v>215</v>
       </c>
-      <c r="E560" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -12216,9 +10534,6 @@
       <c r="D561" t="n">
         <v>215</v>
       </c>
-      <c r="E561" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -12237,9 +10552,6 @@
       <c r="D562" t="n">
         <v>215</v>
       </c>
-      <c r="E562" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -12258,9 +10570,6 @@
       <c r="D563" t="n">
         <v>215</v>
       </c>
-      <c r="E563" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -12279,9 +10588,6 @@
       <c r="D564" t="n">
         <v>215</v>
       </c>
-      <c r="E564" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -12300,9 +10606,6 @@
       <c r="D565" t="n">
         <v>215</v>
       </c>
-      <c r="E565" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -12321,9 +10624,6 @@
       <c r="D566" t="n">
         <v>215</v>
       </c>
-      <c r="E566" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -12342,9 +10642,6 @@
       <c r="D567" t="n">
         <v>215</v>
       </c>
-      <c r="E567" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -12363,9 +10660,6 @@
       <c r="D568" t="n">
         <v>215</v>
       </c>
-      <c r="E568" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -12384,9 +10678,6 @@
       <c r="D569" t="n">
         <v>216</v>
       </c>
-      <c r="E569" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -12405,9 +10696,6 @@
       <c r="D570" t="n">
         <v>216</v>
       </c>
-      <c r="E570" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -12426,9 +10714,6 @@
       <c r="D571" t="n">
         <v>216</v>
       </c>
-      <c r="E571" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -12447,9 +10732,6 @@
       <c r="D572" t="n">
         <v>216</v>
       </c>
-      <c r="E572" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -12468,9 +10750,6 @@
       <c r="D573" t="n">
         <v>216</v>
       </c>
-      <c r="E573" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -12489,9 +10768,6 @@
       <c r="D574" t="n">
         <v>216</v>
       </c>
-      <c r="E574" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -12510,9 +10786,6 @@
       <c r="D575" t="n">
         <v>216</v>
       </c>
-      <c r="E575" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -12531,9 +10804,6 @@
       <c r="D576" t="n">
         <v>216</v>
       </c>
-      <c r="E576" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -12552,9 +10822,6 @@
       <c r="D577" t="n">
         <v>216</v>
       </c>
-      <c r="E577" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -12573,9 +10840,6 @@
       <c r="D578" t="n">
         <v>216</v>
       </c>
-      <c r="E578" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -12594,9 +10858,6 @@
       <c r="D579" t="n">
         <v>216</v>
       </c>
-      <c r="E579" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -12615,9 +10876,6 @@
       <c r="D580" t="n">
         <v>216</v>
       </c>
-      <c r="E580" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -12636,9 +10894,6 @@
       <c r="D581" t="n">
         <v>216</v>
       </c>
-      <c r="E581" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -12657,9 +10912,6 @@
       <c r="D582" t="n">
         <v>216</v>
       </c>
-      <c r="E582" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -12678,9 +10930,6 @@
       <c r="D583" t="n">
         <v>216</v>
       </c>
-      <c r="E583" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -12699,9 +10948,6 @@
       <c r="D584" t="n">
         <v>216</v>
       </c>
-      <c r="E584" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -12720,9 +10966,6 @@
       <c r="D585" t="n">
         <v>217</v>
       </c>
-      <c r="E585" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -12741,9 +10984,6 @@
       <c r="D586" t="n">
         <v>217</v>
       </c>
-      <c r="E586" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -12762,9 +11002,6 @@
       <c r="D587" t="n">
         <v>217</v>
       </c>
-      <c r="E587" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -12783,9 +11020,6 @@
       <c r="D588" t="n">
         <v>217</v>
       </c>
-      <c r="E588" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -12804,9 +11038,6 @@
       <c r="D589" t="n">
         <v>217</v>
       </c>
-      <c r="E589" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -12825,9 +11056,6 @@
       <c r="D590" t="n">
         <v>217</v>
       </c>
-      <c r="E590" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -12846,9 +11074,6 @@
       <c r="D591" t="n">
         <v>217</v>
       </c>
-      <c r="E591" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -12867,9 +11092,6 @@
       <c r="D592" t="n">
         <v>217</v>
       </c>
-      <c r="E592" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -12888,9 +11110,6 @@
       <c r="D593" t="n">
         <v>217</v>
       </c>
-      <c r="E593" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -12909,9 +11128,6 @@
       <c r="D594" t="n">
         <v>217</v>
       </c>
-      <c r="E594" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -12930,9 +11146,6 @@
       <c r="D595" t="n">
         <v>217</v>
       </c>
-      <c r="E595" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -12951,9 +11164,6 @@
       <c r="D596" t="n">
         <v>217</v>
       </c>
-      <c r="E596" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -12972,9 +11182,6 @@
       <c r="D597" t="n">
         <v>217</v>
       </c>
-      <c r="E597" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -12993,9 +11200,6 @@
       <c r="D598" t="n">
         <v>217</v>
       </c>
-      <c r="E598" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -13014,9 +11218,6 @@
       <c r="D599" t="n">
         <v>217</v>
       </c>
-      <c r="E599" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -13035,9 +11236,6 @@
       <c r="D600" t="n">
         <v>217</v>
       </c>
-      <c r="E600" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -13056,9 +11254,6 @@
       <c r="D601" t="n">
         <v>218</v>
       </c>
-      <c r="E601" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -13077,9 +11272,6 @@
       <c r="D602" t="n">
         <v>218</v>
       </c>
-      <c r="E602" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -13098,9 +11290,6 @@
       <c r="D603" t="n">
         <v>218</v>
       </c>
-      <c r="E603" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -13119,9 +11308,6 @@
       <c r="D604" t="n">
         <v>218</v>
       </c>
-      <c r="E604" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -13140,9 +11326,6 @@
       <c r="D605" t="n">
         <v>218</v>
       </c>
-      <c r="E605" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -13161,9 +11344,6 @@
       <c r="D606" t="n">
         <v>218</v>
       </c>
-      <c r="E606" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -13182,9 +11362,6 @@
       <c r="D607" t="n">
         <v>218</v>
       </c>
-      <c r="E607" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -13203,9 +11380,6 @@
       <c r="D608" t="n">
         <v>218</v>
       </c>
-      <c r="E608" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -13224,9 +11398,6 @@
       <c r="D609" t="n">
         <v>218</v>
       </c>
-      <c r="E609" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -13245,9 +11416,6 @@
       <c r="D610" t="n">
         <v>218</v>
       </c>
-      <c r="E610" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -13266,9 +11434,6 @@
       <c r="D611" t="n">
         <v>218</v>
       </c>
-      <c r="E611" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -13287,9 +11452,6 @@
       <c r="D612" t="n">
         <v>218</v>
       </c>
-      <c r="E612" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -13308,9 +11470,6 @@
       <c r="D613" t="n">
         <v>218</v>
       </c>
-      <c r="E613" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -13329,9 +11488,6 @@
       <c r="D614" t="n">
         <v>218</v>
       </c>
-      <c r="E614" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -13350,9 +11506,6 @@
       <c r="D615" t="n">
         <v>218</v>
       </c>
-      <c r="E615" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -13371,9 +11524,6 @@
       <c r="D616" t="n">
         <v>218</v>
       </c>
-      <c r="E616" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -13392,9 +11542,6 @@
       <c r="D617" t="n">
         <v>219</v>
       </c>
-      <c r="E617" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -13413,9 +11560,6 @@
       <c r="D618" t="n">
         <v>219</v>
       </c>
-      <c r="E618" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -13434,9 +11578,6 @@
       <c r="D619" t="n">
         <v>219</v>
       </c>
-      <c r="E619" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -13455,9 +11596,6 @@
       <c r="D620" t="n">
         <v>219</v>
       </c>
-      <c r="E620" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -13476,9 +11614,6 @@
       <c r="D621" t="n">
         <v>219</v>
       </c>
-      <c r="E621" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -13497,9 +11632,6 @@
       <c r="D622" t="n">
         <v>219</v>
       </c>
-      <c r="E622" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -13518,9 +11650,6 @@
       <c r="D623" t="n">
         <v>219</v>
       </c>
-      <c r="E623" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -13539,9 +11668,6 @@
       <c r="D624" t="n">
         <v>219</v>
       </c>
-      <c r="E624" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -13560,9 +11686,6 @@
       <c r="D625" t="n">
         <v>219</v>
       </c>
-      <c r="E625" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -13581,9 +11704,6 @@
       <c r="D626" t="n">
         <v>219</v>
       </c>
-      <c r="E626" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -13602,9 +11722,6 @@
       <c r="D627" t="n">
         <v>219</v>
       </c>
-      <c r="E627" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -13623,9 +11740,6 @@
       <c r="D628" t="n">
         <v>219</v>
       </c>
-      <c r="E628" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -13644,9 +11758,6 @@
       <c r="D629" t="n">
         <v>219</v>
       </c>
-      <c r="E629" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -13665,9 +11776,6 @@
       <c r="D630" t="n">
         <v>219</v>
       </c>
-      <c r="E630" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -13686,9 +11794,6 @@
       <c r="D631" t="n">
         <v>219</v>
       </c>
-      <c r="E631" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -13707,9 +11812,6 @@
       <c r="D632" t="n">
         <v>219</v>
       </c>
-      <c r="E632" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -13728,9 +11830,6 @@
       <c r="D633" t="n">
         <v>220</v>
       </c>
-      <c r="E633" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -13749,9 +11848,6 @@
       <c r="D634" t="n">
         <v>220</v>
       </c>
-      <c r="E634" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -13770,9 +11866,6 @@
       <c r="D635" t="n">
         <v>220</v>
       </c>
-      <c r="E635" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -13791,9 +11884,6 @@
       <c r="D636" t="n">
         <v>220</v>
       </c>
-      <c r="E636" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
@@ -13812,9 +11902,6 @@
       <c r="D637" t="n">
         <v>220</v>
       </c>
-      <c r="E637" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -13833,9 +11920,6 @@
       <c r="D638" t="n">
         <v>220</v>
       </c>
-      <c r="E638" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -13854,9 +11938,6 @@
       <c r="D639" t="n">
         <v>220</v>
       </c>
-      <c r="E639" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -13875,9 +11956,6 @@
       <c r="D640" t="n">
         <v>220</v>
       </c>
-      <c r="E640" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -13896,9 +11974,6 @@
       <c r="D641" t="n">
         <v>220</v>
       </c>
-      <c r="E641" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -13917,9 +11992,6 @@
       <c r="D642" t="n">
         <v>220</v>
       </c>
-      <c r="E642" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -13938,9 +12010,6 @@
       <c r="D643" t="n">
         <v>220</v>
       </c>
-      <c r="E643" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -13959,9 +12028,6 @@
       <c r="D644" t="n">
         <v>220</v>
       </c>
-      <c r="E644" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -13980,9 +12046,6 @@
       <c r="D645" t="n">
         <v>220</v>
       </c>
-      <c r="E645" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -14001,9 +12064,6 @@
       <c r="D646" t="n">
         <v>220</v>
       </c>
-      <c r="E646" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -14022,9 +12082,6 @@
       <c r="D647" t="n">
         <v>220</v>
       </c>
-      <c r="E647" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -14043,9 +12100,6 @@
       <c r="D648" t="n">
         <v>220</v>
       </c>
-      <c r="E648" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -14064,9 +12118,6 @@
       <c r="D649" t="n">
         <v>221</v>
       </c>
-      <c r="E649" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -14085,9 +12136,6 @@
       <c r="D650" t="n">
         <v>221</v>
       </c>
-      <c r="E650" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -14106,9 +12154,6 @@
       <c r="D651" t="n">
         <v>221</v>
       </c>
-      <c r="E651" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -14127,9 +12172,6 @@
       <c r="D652" t="n">
         <v>221</v>
       </c>
-      <c r="E652" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -14148,9 +12190,6 @@
       <c r="D653" t="n">
         <v>221</v>
       </c>
-      <c r="E653" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -14169,9 +12208,6 @@
       <c r="D654" t="n">
         <v>221</v>
       </c>
-      <c r="E654" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -14190,9 +12226,6 @@
       <c r="D655" t="n">
         <v>221</v>
       </c>
-      <c r="E655" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -14211,9 +12244,6 @@
       <c r="D656" t="n">
         <v>221</v>
       </c>
-      <c r="E656" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -14232,9 +12262,6 @@
       <c r="D657" t="n">
         <v>221</v>
       </c>
-      <c r="E657" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -14253,9 +12280,6 @@
       <c r="D658" t="n">
         <v>221</v>
       </c>
-      <c r="E658" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -14274,9 +12298,6 @@
       <c r="D659" t="n">
         <v>221</v>
       </c>
-      <c r="E659" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -14295,9 +12316,6 @@
       <c r="D660" t="n">
         <v>221</v>
       </c>
-      <c r="E660" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -14316,9 +12334,6 @@
       <c r="D661" t="n">
         <v>221</v>
       </c>
-      <c r="E661" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -14337,9 +12352,6 @@
       <c r="D662" t="n">
         <v>221</v>
       </c>
-      <c r="E662" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -14358,9 +12370,6 @@
       <c r="D663" t="n">
         <v>221</v>
       </c>
-      <c r="E663" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -14379,9 +12388,6 @@
       <c r="D664" t="n">
         <v>221</v>
       </c>
-      <c r="E664" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -14400,9 +12406,6 @@
       <c r="D665" t="n">
         <v>222</v>
       </c>
-      <c r="E665" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -14421,9 +12424,6 @@
       <c r="D666" t="n">
         <v>222</v>
       </c>
-      <c r="E666" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -14442,9 +12442,6 @@
       <c r="D667" t="n">
         <v>222</v>
       </c>
-      <c r="E667" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -14463,9 +12460,6 @@
       <c r="D668" t="n">
         <v>222</v>
       </c>
-      <c r="E668" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -14484,9 +12478,6 @@
       <c r="D669" t="n">
         <v>222</v>
       </c>
-      <c r="E669" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -14505,9 +12496,6 @@
       <c r="D670" t="n">
         <v>222</v>
       </c>
-      <c r="E670" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -14526,9 +12514,6 @@
       <c r="D671" t="n">
         <v>222</v>
       </c>
-      <c r="E671" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -14547,9 +12532,6 @@
       <c r="D672" t="n">
         <v>222</v>
       </c>
-      <c r="E672" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -14568,9 +12550,6 @@
       <c r="D673" t="n">
         <v>222</v>
       </c>
-      <c r="E673" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
@@ -14589,9 +12568,6 @@
       <c r="D674" t="n">
         <v>222</v>
       </c>
-      <c r="E674" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -14610,9 +12586,6 @@
       <c r="D675" t="n">
         <v>222</v>
       </c>
-      <c r="E675" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -14631,9 +12604,6 @@
       <c r="D676" t="n">
         <v>222</v>
       </c>
-      <c r="E676" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -14652,9 +12622,6 @@
       <c r="D677" t="n">
         <v>222</v>
       </c>
-      <c r="E677" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -14673,9 +12640,6 @@
       <c r="D678" t="n">
         <v>222</v>
       </c>
-      <c r="E678" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -14694,9 +12658,6 @@
       <c r="D679" t="n">
         <v>222</v>
       </c>
-      <c r="E679" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
@@ -14715,9 +12676,6 @@
       <c r="D680" t="n">
         <v>222</v>
       </c>
-      <c r="E680" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -14736,9 +12694,6 @@
       <c r="D681" t="n">
         <v>223</v>
       </c>
-      <c r="E681" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -14757,9 +12712,6 @@
       <c r="D682" t="n">
         <v>223</v>
       </c>
-      <c r="E682" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
@@ -14778,9 +12730,6 @@
       <c r="D683" t="n">
         <v>223</v>
       </c>
-      <c r="E683" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
@@ -14799,9 +12748,6 @@
       <c r="D684" t="n">
         <v>223</v>
       </c>
-      <c r="E684" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
@@ -14820,9 +12766,6 @@
       <c r="D685" t="n">
         <v>223</v>
       </c>
-      <c r="E685" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
@@ -14841,9 +12784,6 @@
       <c r="D686" t="n">
         <v>223</v>
       </c>
-      <c r="E686" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
@@ -14862,9 +12802,6 @@
       <c r="D687" t="n">
         <v>223</v>
       </c>
-      <c r="E687" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
@@ -14883,9 +12820,6 @@
       <c r="D688" t="n">
         <v>223</v>
       </c>
-      <c r="E688" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
@@ -14904,9 +12838,6 @@
       <c r="D689" t="n">
         <v>224</v>
       </c>
-      <c r="E689" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
@@ -14925,9 +12856,6 @@
       <c r="D690" t="n">
         <v>224</v>
       </c>
-      <c r="E690" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
@@ -14946,9 +12874,6 @@
       <c r="D691" t="n">
         <v>224</v>
       </c>
-      <c r="E691" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
@@ -14967,9 +12892,6 @@
       <c r="D692" t="n">
         <v>224</v>
       </c>
-      <c r="E692" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
@@ -14988,9 +12910,6 @@
       <c r="D693" t="n">
         <v>224</v>
       </c>
-      <c r="E693" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
@@ -15009,9 +12928,6 @@
       <c r="D694" t="n">
         <v>224</v>
       </c>
-      <c r="E694" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
@@ -15030,9 +12946,6 @@
       <c r="D695" t="n">
         <v>224</v>
       </c>
-      <c r="E695" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
@@ -15051,9 +12964,6 @@
       <c r="D696" t="n">
         <v>224</v>
       </c>
-      <c r="E696" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -15072,9 +12982,6 @@
       <c r="D697" t="n">
         <v>225</v>
       </c>
-      <c r="E697" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
@@ -15093,9 +13000,6 @@
       <c r="D698" t="n">
         <v>225</v>
       </c>
-      <c r="E698" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
@@ -15114,9 +13018,6 @@
       <c r="D699" t="n">
         <v>225</v>
       </c>
-      <c r="E699" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
@@ -15135,9 +13036,6 @@
       <c r="D700" t="n">
         <v>225</v>
       </c>
-      <c r="E700" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
@@ -15156,9 +13054,6 @@
       <c r="D701" t="n">
         <v>225</v>
       </c>
-      <c r="E701" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
@@ -15177,9 +13072,6 @@
       <c r="D702" t="n">
         <v>225</v>
       </c>
-      <c r="E702" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
@@ -15198,9 +13090,6 @@
       <c r="D703" t="n">
         <v>225</v>
       </c>
-      <c r="E703" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
@@ -15219,9 +13108,6 @@
       <c r="D704" t="n">
         <v>225</v>
       </c>
-      <c r="E704" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
@@ -15240,9 +13126,6 @@
       <c r="D705" t="n">
         <v>226</v>
       </c>
-      <c r="E705" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
@@ -15261,9 +13144,6 @@
       <c r="D706" t="n">
         <v>226</v>
       </c>
-      <c r="E706" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
@@ -15282,9 +13162,6 @@
       <c r="D707" t="n">
         <v>226</v>
       </c>
-      <c r="E707" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
@@ -15303,9 +13180,6 @@
       <c r="D708" t="n">
         <v>226</v>
       </c>
-      <c r="E708" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
@@ -15324,9 +13198,6 @@
       <c r="D709" t="n">
         <v>226</v>
       </c>
-      <c r="E709" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
@@ -15345,9 +13216,6 @@
       <c r="D710" t="n">
         <v>226</v>
       </c>
-      <c r="E710" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
@@ -15366,9 +13234,6 @@
       <c r="D711" t="n">
         <v>226</v>
       </c>
-      <c r="E711" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
@@ -15387,9 +13252,6 @@
       <c r="D712" t="n">
         <v>226</v>
       </c>
-      <c r="E712" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
@@ -15408,9 +13270,6 @@
       <c r="D713" t="n">
         <v>227</v>
       </c>
-      <c r="E713" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
@@ -15429,9 +13288,6 @@
       <c r="D714" t="n">
         <v>227</v>
       </c>
-      <c r="E714" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
@@ -15450,9 +13306,6 @@
       <c r="D715" t="n">
         <v>227</v>
       </c>
-      <c r="E715" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
@@ -15471,9 +13324,6 @@
       <c r="D716" t="n">
         <v>227</v>
       </c>
-      <c r="E716" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
@@ -15492,9 +13342,6 @@
       <c r="D717" t="n">
         <v>227</v>
       </c>
-      <c r="E717" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
@@ -15513,9 +13360,6 @@
       <c r="D718" t="n">
         <v>227</v>
       </c>
-      <c r="E718" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
@@ -15534,9 +13378,6 @@
       <c r="D719" t="n">
         <v>227</v>
       </c>
-      <c r="E719" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
@@ -15554,9 +13395,6 @@
       </c>
       <c r="D720" t="n">
         <v>227</v>
-      </c>
-      <c r="E720" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
